--- a/Files/EXCEL Output/CustomReport.xlsx
+++ b/Files/EXCEL Output/CustomReport.xlsx
@@ -130,8 +130,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:I14" headerRowCount="1">
-  <autoFilter ref="A1:I14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:I26" headerRowCount="1">
+  <autoFilter ref="A1:I26"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
@@ -481,7 +481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -589,14 +589,14 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. "Changed Type" is used to convert certain column types in the Source_Table to integer, text, and other datatypes.
+          <t xml:space="preserve">1. This changes the data types of the columns in the source table to "Table No" as Int64, "Table Name" as text, "Table Mode" as text, "Table Type" as text, "Table Source" as text, "Original Table Name" as text, "Table Query" as
 </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
@@ -636,14 +636,14 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. "Changed Type" is a function that changes the data type of four columns in a table.
+          <t xml:space="preserve">1. Change the data types of the columns in Table1 to Text for "Measure Name", "Measure Expression", "Measure Data Type", and "Measure Description".
 </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
@@ -720,14 +720,14 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. This changes the data type of the column "No relationships present in this file" to any type.
+          <t xml:space="preserve">1. This changes the data type of the column "No relationships present in this file" to "any".
 </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
@@ -767,14 +767,14 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. This changes the data types of the columns in the table "Promoted Headers" to Int64 numbers, Text, or Text.
+          <t xml:space="preserve">1. This sentence changes the data types of each column in the promoted headers table to different types, such as Int64 and text.
 </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
@@ -814,14 +814,14 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. This transformation changes the data types of the columns within the source table to the specified data types.
+          <t xml:space="preserve">1. This sentence changes the data types of several columns in the source table to Int64, text, and text respectively.
 </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
@@ -861,14 +861,14 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. This changes the data type of the column "No measures present in this file" to any type.
+          <t xml:space="preserve">1. This changes the data type of the column "No measures presented in this file" to any type.
 </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
@@ -908,14 +908,14 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. This sentence changes the data type of the various columns of the "Promoted Headers" table to the specified data types (Integer, Text, or Text again).
+          <t xml:space="preserve">1. The command is changing each column's type in a table to a specified type.
 </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
@@ -955,23 +955,23 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. This code changes the "No relationships present in this file" column type to "any".
+          <t xml:space="preserve">1. This changes the data type of the column labeled "No relationships present in this file" to any.
 </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Sales vSalesPerson</t>
+          <t>HumanResources vJobCandidateEmployment</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>import</t>
+          <t>directQuery</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>Sales_vSalesPerson</t>
+          <t>HumanResources_vJobCandidateEmployment</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
@@ -1007,11 +1007,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>HumanResources vJobCandidateEmployment</t>
+          <t>Purchasing vVendorWithContacts</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>HumanResources_vJobCandidateEmployment</t>
+          <t>Purchasing_vVendorWithContacts</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
@@ -1052,31 +1052,31 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Purchasing vVendorWithContacts</t>
+          <t>data</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>directQuery</t>
+          <t>import</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>Sql.Databases</t>
+          <t>Csv.Document</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>"MAQN0366\SQLEXPRESS"</t>
+          <t>"C:\Users\MAQ\Downloads\data.csv"</t>
         </is>
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>Purchasing_vVendorWithContacts</t>
+          <t>data</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
@@ -1085,61 +1085,16 @@
         </is>
       </c>
       <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>No Modification</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>import</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>Csv.Document</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>"C:\Users\MAQ\Downloads\data.csv"</t>
-        </is>
-      </c>
-      <c r="F14" s="1" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>No Query</t>
-        </is>
-      </c>
-      <c r="H14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"Promoted Headers" = Table.PromoteHeaders(Source, [PromoteAllScalars=true]),
 2. #"Changed Type" = Table.TransformColumnTypes(#"Promoted Headers",{{"Name", type text}, {"Employee ID", type text}, {"Project Manager", type text}, {"Specialization Name", type text}, {"Completion Or Target Date", type datetime}, {"Is LDP Goal", type text}, {"LDP Completion Risk", type text}, {"SpecializationPercentage", type number}, {"First Result", type text}})
 </t>
         </is>
       </c>
-      <c r="I14" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. "Promoted Headers" is a function that takes the headers of a source table and promotes them to become columns with their associated values.
-2. This command changes the data types of different columns in the table to a specified type.
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. Promoted Headers is a function that takes the data from the provided source, and creates an Excel table with all scalar values as headers.
+2. The column types in the table were changed to text, datetime, number and text for the respective columns.
 </t>
         </is>
       </c>

--- a/Files/EXCEL Output/CustomReport.xlsx
+++ b/Files/EXCEL Output/CustomReport.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. This changes the data types of the columns in the source table to "Table No" as Int64, "Table Name" as text, "Table Mode" as text, "Table Type" as text, "Table Source" as text, "Original Table Name" as text, "Table Query" as
+          <t xml:space="preserve">1. The "Changed Type" transformation changes the data types of the columns in the source table to integer, text, or other specified types.
 </t>
         </is>
       </c>
@@ -636,7 +636,7 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Change the data types of the columns in Table1 to Text for "Measure Name", "Measure Expression", "Measure Data Type", and "Measure Description".
+          <t xml:space="preserve">1. This sentence changes the data types of the columns in Table1_Table from whatever their existing type is to text.
 </t>
         </is>
       </c>
@@ -720,7 +720,7 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. This changes the data type of the column "No relationships present in this file" to "any".
+          <t xml:space="preserve">1. This changes the column type of the "No relationships present in this file" column to "Any" type.
 </t>
         </is>
       </c>
@@ -767,7 +767,7 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. This sentence changes the data types of each column in the promoted headers table to different types, such as Int64 and text.
+          <t xml:space="preserve">1. This statement changes the data type of the columns in the table "Promoted Headers" to Int64, Text, or other specified types.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. This sentence changes the data types of several columns in the source table to Int64, text, and text respectively.
+          <t xml:space="preserve">1. The "Change Type" function is used to convert the data types of each column from the Source_Table to the designated data types.
 </t>
         </is>
       </c>
@@ -861,7 +861,7 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. This changes the data type of the column "No measures presented in this file" to any type.
+          <t xml:space="preserve">1. This changes the data type of a specific column in the table to any data type.
 </t>
         </is>
       </c>
@@ -908,7 +908,7 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. The command is changing each column's type in a table to a specified type.
+          <t xml:space="preserve">1. The "Changed Type" transformation is changing the data types of each of the columns in the dataset.
 </t>
         </is>
       </c>
@@ -955,7 +955,7 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. This changes the data type of the column labeled "No relationships present in this file" to any.
+          <t xml:space="preserve">1. The "Changed Type" step in the data table transforms a column labeled 'No relationships present in this file' to any data type.
 </t>
         </is>
       </c>
@@ -1093,8 +1093,8 @@
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Promoted Headers is a function that takes the data from the provided source, and creates an Excel table with all scalar values as headers.
-2. The column types in the table were changed to text, datetime, number and text for the respective columns.
+          <t xml:space="preserve">1. "Promoted Headers" means that all scalar values from the table's Source will be used as column headers in the table.
+2. Table.TransformColumnTypes changes the data types of the specified column names in the Promoted Headers table to the specified data types.
 </t>
         </is>
       </c>
